--- a/Documents/Output/BOQ and BOM.xlsx
+++ b/Documents/Output/BOQ and BOM.xlsx
@@ -2874,7 +2874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10469,8 +10469,8 @@
   </sheetPr>
   <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -10478,8 +10478,8 @@
     <col width="15" customWidth="1" style="330" min="1" max="1"/>
     <col width="11.33203125" customWidth="1" style="330" min="2" max="13"/>
     <col width="9.5546875" customWidth="1" style="330" min="14" max="18"/>
-    <col width="8.88671875" customWidth="1" style="330" min="19" max="23"/>
-    <col width="8.88671875" customWidth="1" style="330" min="24" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="330" min="19" max="24"/>
+    <col width="8.88671875" customWidth="1" style="330" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" s="312">
@@ -12096,7 +12096,9 @@
       <c r="B54" s="187" t="n"/>
       <c r="C54" s="187" t="n"/>
       <c r="D54" s="187" t="n"/>
-      <c r="E54" s="188" t="n"/>
+      <c r="E54" s="188" t="n">
+        <v>9186</v>
+      </c>
       <c r="F54" s="189" t="n"/>
       <c r="G54" s="187" t="n"/>
       <c r="H54" s="188" t="n"/>
